--- a/biology/Médecine/Méthode_anatomoclinique/Méthode_anatomoclinique.xlsx
+++ b/biology/Médecine/Méthode_anatomoclinique/Méthode_anatomoclinique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9thode_anatomoclinique</t>
+          <t>Méthode_anatomoclinique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Laennec (1781-1826) définit la méthode anatomoclinique comme une « méthode d'étude des états pathologiques basée sur l'analyse de l'observation des symptômes ou des altérations de fonctions qui coïncident avec chaque espèce d'altérations d'organes ». Elle sert notamment à l'étude de anatomopathologie, branche de l’anatomie consacrée à l'étude lésions des maladies sur le corps humain.
 Pour Jean-Martin Charcot (1825-1893), le principe anatomoclinique consistait en « l'étude soigneuse des symptômes associée à la constatation du siège anatomique des lésions après la mort ».
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9thode_anatomoclinique</t>
+          <t>Méthode_anatomoclinique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Grandes étapes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Création de la méthode anatomoclinique : Giovanni B. Morgagni au XVIIIe siècle.
 Développement de la méthode anatomoclinique : Xavier Bichat 1771-1802, puis R. Laennec 1781-1826
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9thode_anatomoclinique</t>
+          <t>Méthode_anatomoclinique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Giovanni Battista Morgagni (1682-1771), professeur de médecine à Padoue et anatomiste, peut être considéré comme le premier anatomopathologiste moderne. Il entreprit d'établir une relation de cause à effet entre les lésions constatées chez le cadavre et la sémiologie clinique. Il fonda à ce titre la « méthode anatomoclinique ». 
 Contrairement à Boerhave qui ne cherchait dans l'autopsie qu'une confirmation du diagnostic clinique, Morgagni construisit autour de l'anatomie pathologique un véritable système de pensée devant déboucher sur une classification rationnelle des maladies (nosologie). Morgagni publia ainsi en 1761, à Venise, le premier ouvrage d'anatomie pathologique De sedibus et causis morborum per anatomen indagatis. Morgagni, cependant, ne se livra qu'à une analyse macroscopique des lésions. Il n'utilisa pas le microscope, pourtant utilisé au siècle précédent par Leeuwenhoek et très vraisemblablement connu de lui.
